--- a/mypjt/dataFiles/EUR.xlsx
+++ b/mypjt/dataFiles/EUR.xlsx
@@ -34,34 +34,34 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>7.8046</t>
-  </si>
-  <si>
-    <t>2018-03-26 21:56:00</t>
+    <t>7.7890</t>
+  </si>
+  <si>
+    <t>2018-03-27 14:51:00</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>130.7820</t>
+    <t>131.7900</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>0.8756</t>
+    <t>0.8759</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>1.2436</t>
+    <t>1.2475</t>
   </si>
   <si>
     <t>RUB</t>
   </si>
   <si>
-    <t>71.0860</t>
+    <t>71.1830</t>
   </si>
 </sst>
 </file>
